--- a/计算机学院2016级新生分班名单.xlsx
+++ b/计算机学院2016级新生分班名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KuroNeko\Desktop\Graduation_Project\face_recognition_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6D8484-7810-48AA-9A03-BEECBA0712F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A51ADF4-C3BD-406F-8072-01D63FEA6B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="1680" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5273,7 +5273,7 @@
   <dimension ref="A1:H441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
